--- a/poster/gili_vis/loss plots.xlsx
+++ b/poster/gili_vis/loss plots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="959" activeTab="9"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="959" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="output.csv" sheetId="1" r:id="rId1"/>
@@ -1284,7 +1284,7 @@
           <c:x val="0.14299409833190599"/>
           <c:y val="0.149582016205626"/>
           <c:w val="0.78996298051984093"/>
-          <c:h val="0.69627770592777505"/>
+          <c:h val="0.63871175736848707"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4364,10 +4364,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600" b="0">
+                    <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600" b="0">
+                    <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Iteration</a:t>
                 </a:r>
               </a:p>
@@ -4377,8 +4381,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42236151279373302"/>
-              <c:y val="0.91872325791403997"/>
+              <c:x val="0.46166643569773308"/>
+              <c:y val="0.8913260939588874"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4392,7 +4396,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
+              <a:defRPr sz="1400">
                 <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
@@ -4425,10 +4429,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600" b="0">
+                    <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600" b="0">
+                    <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Loss</a:t>
                 </a:r>
               </a:p>
@@ -4438,8 +4446,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.74105263516059E-2"/>
-              <c:y val="0.42105690150254299"/>
+              <c:x val="6.8220174142199497E-3"/>
+              <c:y val="0.42105685121490549"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4453,7 +4461,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
+              <a:defRPr sz="1400">
                 <a:latin typeface="Oxygen" panose="02000503000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
@@ -31218,7 +31226,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>783121</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127138</xdr:rowOff>
     </xdr:from>
@@ -35417,8 +35425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42629,8 +42637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E121"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
